--- a/target/classes/universityInfo.xlsx
+++ b/target/classes/universityInfo.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\module_gradle\Education\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163CEE93-EA54-42E8-B0A9-AF66236BE092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70669222-41F5-4E36-875E-B2826E2F3A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
     <sheet name="Университеты" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -60,12 +59,6 @@
     <t>0007-high</t>
   </si>
   <si>
-    <t>Московский Выдуманный Университет</t>
-  </si>
-  <si>
-    <t>МВУ</t>
-  </si>
-  <si>
     <t>PHYSICS</t>
   </si>
   <si>
@@ -78,42 +71,6 @@
     <t>MATHEMATICS</t>
   </si>
   <si>
-    <t>Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>МПИ</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет</t>
-  </si>
-  <si>
-    <t>МГМУ</t>
-  </si>
-  <si>
-    <t>Тамбовский Университет Медицины</t>
-  </si>
-  <si>
-    <t>ТУМ</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт</t>
-  </si>
-  <si>
-    <t>СМИ</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>ВЛПУ</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
-  </si>
-  <si>
-    <t>КУВ</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -151,6 +108,48 @@
   </si>
   <si>
     <t>Vasiliev</t>
+  </si>
+  <si>
+    <t>Kyrgyz Russian Slavic University</t>
+  </si>
+  <si>
+    <t>KRSU</t>
+  </si>
+  <si>
+    <t>Kyrgyz National University</t>
+  </si>
+  <si>
+    <t>KNU</t>
+  </si>
+  <si>
+    <t>Kyrgyz National Technical University</t>
+  </si>
+  <si>
+    <t>Kyrgyz Medical University</t>
+  </si>
+  <si>
+    <t>KMU</t>
+  </si>
+  <si>
+    <t>Kyrgyz Medicine Academy</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>Osh Medical University</t>
+  </si>
+  <si>
+    <t>OMU</t>
+  </si>
+  <si>
+    <t>POLITECH</t>
+  </si>
+  <si>
+    <t>Bishkek State University</t>
+  </si>
+  <si>
+    <t>BSU</t>
   </si>
 </sst>
 </file>
@@ -541,12 +540,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -596,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -728,7 +728,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1992</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1990</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,16 +779,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>1987</v>
+        <v>1960</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,16 +796,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>1960</v>
+        <v>1975</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,16 +813,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,16 +830,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>1936</v>
+        <v>1979</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,16 +847,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2003</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,32 +864,20 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>1989</v>
+        <v>1966</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>